--- a/IP_near_field_all_reduced.xlsx
+++ b/IP_near_field_all_reduced.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D459F4F-5840-4F5C-AFAA-7751B086247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDDA561-92CE-44E1-97F4-0FB66317A49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -169,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3BA400D-A729-42E1-B8D0-717AFCA56088}" name="Table1" displayName="Table1" ref="A1:J172" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3BA400D-A729-42E1-B8D0-717AFCA56088}" name="Table1" displayName="Table1" ref="A1:J173" totalsRowCount="1" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:J172" xr:uid="{A3BA400D-A729-42E1-B8D0-717AFCA56088}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6FBD30EB-51E7-44CF-9925-3C1CBFD73944}" name="Mass"/>
@@ -180,8 +193,12 @@
     <tableColumn id="6" xr3:uid="{6B83EA80-821A-4BA8-B40C-1B605A60F31D}" name="CP"/>
     <tableColumn id="7" xr3:uid="{2732777A-2490-4285-8F07-F637550D553D}" name="End time"/>
     <tableColumn id="8" xr3:uid="{A2F27231-18ED-4783-B0F3-59D79996CC97}" name="EP"/>
-    <tableColumn id="9" xr3:uid="{18175E4D-FCE4-4FED-8988-A2968B289EE6}" name="Original"/>
-    <tableColumn id="10" xr3:uid="{63BEA425-EBDF-46EF-A92A-C0FD9CAA34F8}" name="Reduced"/>
+    <tableColumn id="9" xr3:uid="{18175E4D-FCE4-4FED-8988-A2968B289EE6}" name="Original" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table1[Original])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{63BEA425-EBDF-46EF-A92A-C0FD9CAA34F8}" name="Reduced" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table1[Reduced])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S156" sqref="S156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5992,6 +6009,16 @@
         <v>320</v>
       </c>
     </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f>SUM(Table1[Original])</f>
+        <v>428577</v>
+      </c>
+      <c r="J173">
+        <f>SUM(Table1[Reduced])</f>
+        <v>45612</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/IP_near_field_all_reduced.xlsx
+++ b/IP_near_field_all_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDDA561-92CE-44E1-97F4-0FB66317A49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39607D67-9CA4-4B97-80F7-D0D924826E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,21 +491,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S156" sqref="S156"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -601,7 +601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -633,7 +633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -665,7 +665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -761,7 +761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -793,7 +793,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -825,7 +825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -857,7 +857,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.5</v>
       </c>
@@ -889,7 +889,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.5</v>
       </c>
@@ -921,7 +921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.5</v>
       </c>
@@ -953,7 +953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.5</v>
       </c>
@@ -985,7 +985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.5</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.5</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.5</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.5</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.5</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.5</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.5</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.5</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.5</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4.5</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4.5</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4.5</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4.5</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6.5</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6.5</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6.5</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6.5</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>6.5</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>6.5</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6.5</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6.5</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6.5</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8.5</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8.5</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8.5</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>8.5</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>8.5</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>8.5</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>8.5</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8.5</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8.5</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10.5</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10.5</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>10.5</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>10.5</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10.5</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>10.5</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>10.5</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>10.5</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>10.5</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>12.5</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>12.5</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>12.5</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>12.5</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>12.5</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>12.5</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>12.5</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>12.5</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>12.5</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>14.5</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>14.5</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>14.5</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>14.5</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>14.5</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>14.5</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>14.5</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>14.5</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>14.5</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>16.5</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>16.5</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>16.5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16.5</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>16.5</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>16.5</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>16.5</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>16.5</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>16.5</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>18.5</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>18.5</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>18.5</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>18.5</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>18.5</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>18.5</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>18.5</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>18.5</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>18.5</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>20.5</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>20.5</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>20.5</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>20.5</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>20.5</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>20.5</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>20.5</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>20.5</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>20.5</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>22.5</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>22.5</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>22.5</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>22.5</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>22.5</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>22.5</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>22.5</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>22.5</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>22.5</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>24.5</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>24.5</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>24.5</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>24.5</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>24.5</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>24.5</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>24.5</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>24.5</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>24.5</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>26.5</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>26.5</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>26.5</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>26.5</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>26.5</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>26.5</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>26.5</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>26.5</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>26.5</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>28.5</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>28.5</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>28.5</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>28.5</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>28.5</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>28.5</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>28.5</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>28.5</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>28.5</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>30.5</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>30.5</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>30.5</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>30.5</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>30.5</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>30.5</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>30.5</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>30.5</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>30.5</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>32.5</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>32.5</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>32.5</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>32.5</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>32.5</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>32.5</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>32.5</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>32.5</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>32.5</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>34.5</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>34.5</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>34.5</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>34.5</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>34.5</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>34.5</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>34.5</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>34.5</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>34.5</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>35</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>35</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>35</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>35</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>35</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>35</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>35</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>35</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>35</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I173">
         <f>SUM(Table1[Original])</f>
         <v>428577</v>
